--- a/vaq ETABS/Proceso excel.xlsx
+++ b/vaq ETABS/Proceso excel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\gitPrimer-Semestre-25\vaq ETABS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\gitPrimer-Semetre-25\vaq ETABS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8AB4B70-E8C2-4960-BE78-678D2E695BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00FC683-ED40-4FD8-85E2-9E1E7CE1F31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0A484915-CD32-4196-BE6A-7BDF20609274}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A484915-CD32-4196-BE6A-7BDF20609274}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,38 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">SECCIONES DE PROYECTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 VIGAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitud </t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Lv</t>
-  </si>
-  <si>
-    <t>Lv/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altura </t>
-  </si>
-  <si>
-    <t>Hv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>MATERIAL DE CONCRETO</t>
+  </si>
+  <si>
+    <t>f´c=</t>
+  </si>
+  <si>
+    <t>kgr/cm2</t>
+  </si>
+  <si>
+    <t>E=</t>
+  </si>
+  <si>
+    <t>15100 raiz(f´c)</t>
+  </si>
+  <si>
+    <t>kgf/cm2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,53 +403,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB139BB6-BDC8-4301-86B5-8FE3485DCF5A}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="A3:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f>15100*SQRT(B5)</f>
+        <v>218819.78886746051</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
